--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B59B92-7BC8-4A90-8291-E7E4CFFC4C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F220C0D1-F1B7-48F3-BF18-8AEE0B53165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="2235" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Playoff" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>Maç Türü</t>
   </si>
@@ -73,7 +73,28 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Genç Saadet OF</t>
+    <t>Ajans Of</t>
+  </si>
+  <si>
+    <t>Fortuna United</t>
+  </si>
+  <si>
+    <t>Kural Kesiciler</t>
+  </si>
+  <si>
+    <t>61.Alay</t>
+  </si>
+  <si>
+    <t>Çirihtalar</t>
+  </si>
+  <si>
+    <t>Araklı 1961 Spor</t>
+  </si>
+  <si>
+    <t>Hubuş FK</t>
+  </si>
+  <si>
+    <t>Of FK</t>
   </si>
 </sst>
 </file>
@@ -454,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -515,7 +536,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -554,10 +575,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -593,10 +614,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -632,10 +653,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -672,12 +693,6 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
@@ -690,9 +705,6 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
@@ -704,21 +716,12 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
@@ -731,9 +734,6 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
@@ -745,21 +745,12 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
@@ -772,9 +763,6 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
@@ -786,21 +774,12 @@
       <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
@@ -814,7 +793,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G2 A4:C5 C3 A7:C8 C6 A10:C11 C9 A13:C14 C12 A16:C17 C15 A19:C20 C18 A22:C23 C21 C24" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G2 A4:C5 C3 A7:C8 C6 A10:C11 C9 A13:C14 C12 A16:A17 C15 A19:A20 C18 A22:A23 C21 C24 C16:C17 C19:C20 C22:C23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F220C0D1-F1B7-48F3-BF18-8AEE0B53165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF84E4-6DFF-4F67-9BAA-0EACB200FDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Playoff" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>Maç Türü</t>
   </si>
@@ -476,7 +476,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -693,9 +693,6 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
       <c r="F15" s="1">
         <v>45852</v>
       </c>
@@ -793,7 +790,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G2 A4:C5 C3 A7:C8 C6 A10:C11 C9 A13:C14 C12 A16:A17 C15 A19:A20 C18 A22:A23 C21 C24 C16:C17 C19:C20 C22:C23" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G2 A4:C5 C3 A7:C8 C6 A10:C11 C9 A13:C14 C12 A16:A17 A19:A20 C18 A22:A23 C21 C24 C16:C17 C19:C20 C22:C23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF84E4-6DFF-4F67-9BAA-0EACB200FDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C3ECAF-39CC-4A66-9756-E7C59C1AD2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Playoff" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>Maç Türü</t>
   </si>
@@ -476,7 +476,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -544,6 +544,12 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
       <c r="F3" s="1">
         <v>45845</v>
       </c>
@@ -583,6 +589,12 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
       <c r="F6" s="1">
         <v>45845</v>
       </c>
@@ -693,6 +705,12 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" s="1">
         <v>45852</v>
       </c>

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C3ECAF-39CC-4A66-9756-E7C59C1AD2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB46B45E-D307-4DAB-89ED-A154662BB61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Playoff" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,6 +634,12 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
       <c r="F9" s="1">
         <v>45847</v>
       </c>

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB46B45E-D307-4DAB-89ED-A154662BB61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1DA7F7-4F93-4DE9-8765-80CD0AFC7B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="1890" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Playoff" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>Maç Türü</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>Of FK</t>
+  </si>
+  <si>
+    <t>Penaltı 1</t>
+  </si>
+  <si>
+    <t>Penaltı 2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/18YMqpxe20g</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pssuvQr70gs</t>
   </si>
 </sst>
 </file>
@@ -473,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -485,10 +497,11 @@
     <col min="4" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="31.125" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,11 +523,17 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -534,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -556,8 +575,11 @@
       <c r="G3" s="2">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -568,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -579,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -601,8 +623,11 @@
       <c r="G6" s="2">
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -613,7 +638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -624,7 +649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -647,7 +672,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -658,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -669,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -679,14 +704,26 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
       <c r="F12" s="1">
         <v>45847</v>
       </c>
       <c r="G12" s="2">
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -698,7 +735,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -710,7 +747,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -724,7 +761,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -743,6 +780,12 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1DA7F7-4F93-4DE9-8765-80CD0AFC7B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC450CC-F974-4800-82CB-5B7DF57185F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1890" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Playoff" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Maç Türü</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>https://youtu.be/pssuvQr70gs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Zc2rrwS6Ccw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/7p5q1Q6-Q6w</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -671,6 +677,9 @@
       <c r="G9" s="2">
         <v>0.875</v>
       </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -721,6 +730,9 @@
       </c>
       <c r="J12">
         <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC450CC-F974-4800-82CB-5B7DF57185F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF34BFD-A577-4B9B-B04F-0EA5C0695EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Playoff" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>Maç Türü</t>
   </si>
@@ -494,7 +494,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -766,6 +766,12 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="F15" s="1">
         <v>45852</v>
       </c>
@@ -801,6 +807,12 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="F18" s="1">
         <v>45852</v>
       </c>
@@ -827,8 +839,20 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
       <c r="C21" t="s">
         <v>8</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>45857</v>

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF34BFD-A577-4B9B-B04F-0EA5C0695EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A1D743-30B5-42AB-8D47-ED77F5AF8DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Maç Türü</t>
   </si>
@@ -494,7 +494,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -766,12 +766,6 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15" s="1">
         <v>45852</v>
       </c>
@@ -807,12 +801,6 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
       <c r="F18" s="1">
         <v>45852</v>
       </c>
@@ -839,20 +827,8 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
       <c r="C21" t="s">
         <v>8</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>45857</v>

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A1D743-30B5-42AB-8D47-ED77F5AF8DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A4DE14-65E2-4470-9978-BC05FFCF08FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A4DE14-65E2-4470-9978-BC05FFCF08FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F67E4F9-D57E-4702-A216-EBF68764FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Playoff" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -770,7 +770,7 @@
         <v>45852</v>
       </c>
       <c r="G15" s="2">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>45852</v>
       </c>
       <c r="G18" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F67E4F9-D57E-4702-A216-EBF68764FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AAB4EA-B147-4B23-AB7A-3DAD69802207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
   <si>
     <t>Maç Türü</t>
   </si>
@@ -494,7 +494,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -766,12 +766,24 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
       <c r="F15" s="1">
         <v>45852</v>
       </c>
       <c r="G15" s="2">
         <v>0.91666666666666663</v>
       </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -782,7 +794,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -791,7 +803,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -801,14 +813,26 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
       <c r="F18" s="1">
         <v>45852</v>
       </c>
       <c r="G18" s="2">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -817,7 +841,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -826,7 +850,13 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
@@ -837,7 +867,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -846,7 +876,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -855,7 +885,13 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AAB4EA-B147-4B23-AB7A-3DAD69802207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E39FC1-1F3D-4D5C-B0ED-DA85D1D805BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>Maç Türü</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>https://youtu.be/7p5q1Q6-Q6w</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Yp_pg2vCASI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Dtif43f-0tQ</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -784,6 +790,9 @@
       <c r="J15">
         <v>10</v>
       </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -794,7 +803,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -803,7 +812,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -831,8 +840,11 @@
       <c r="J18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -841,7 +853,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -850,7 +862,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -867,7 +879,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -876,7 +888,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -885,7 +897,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E39FC1-1F3D-4D5C-B0ED-DA85D1D805BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC0985E-FDE8-4D71-A873-4F757D697968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Playoff" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -872,6 +872,12 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
       <c r="F21" s="1">
         <v>45857</v>
       </c>
@@ -906,6 +912,12 @@
       </c>
       <c r="C24" t="s">
         <v>8</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
       </c>
       <c r="F24" s="1">
         <v>45857</v>

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC0985E-FDE8-4D71-A873-4F757D697968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C199D683-B70B-4936-A376-BA514FB16E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>Maç Türü</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>https://youtu.be/Dtif43f-0tQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UwPkIRGWSeA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/v4QNOTOEC-E</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -884,6 +890,9 @@
       <c r="G21" s="2">
         <v>0.91666666666666663</v>
       </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -914,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -924,6 +933,9 @@
       </c>
       <c r="G24" s="2">
         <v>0.875</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/playoff-sonuclari.xlsx
+++ b/data/playoff-sonuclari.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakay\OneDrive\Masaüstü\d-8-ligi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C199D683-B70B-4936-A376-BA514FB16E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862887E7-E143-4438-922E-62CDA443FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Playoff" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <t>https://youtu.be/UwPkIRGWSeA</t>
   </si>
   <si>
-    <t>https://youtu.be/v4QNOTOEC-E</t>
+    <t>https://youtu.be/Y2WH_2cX65g</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -923,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>2</v>
